--- a/CSharp/CalculatorTests/Data/CalculatorDataSource.xlsx
+++ b/CSharp/CalculatorTests/Data/CalculatorDataSource.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Add" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,8 +38,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -106,8 +107,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -130,13 +135,13 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,12 +1374,12 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,12 +2612,12 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3844,13 +3849,15 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,7 +3867,7 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3871,7 +3878,7 @@
       <c r="B2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <f aca="false">A2/B2</f>
         <v>0.1</v>
       </c>
@@ -3883,7 +3890,7 @@
       <c r="B3" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <f aca="false">A3/B3</f>
         <v>0.181818181818182</v>
       </c>
@@ -3895,7 +3902,7 @@
       <c r="B4" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <f aca="false">A4/B4</f>
         <v>0.25</v>
       </c>
@@ -3907,7 +3914,7 @@
       <c r="B5" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <f aca="false">A5/B5</f>
         <v>0.307692307692308</v>
       </c>
@@ -3919,7 +3926,7 @@
       <c r="B6" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <f aca="false">A6/B6</f>
         <v>0.357142857142857</v>
       </c>
@@ -3931,7 +3938,7 @@
       <c r="B7" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <f aca="false">A7/B7</f>
         <v>0.4</v>
       </c>
@@ -3943,7 +3950,7 @@
       <c r="B8" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <f aca="false">A8/B8</f>
         <v>0.4375</v>
       </c>
@@ -3955,7 +3962,7 @@
       <c r="B9" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <f aca="false">A9/B9</f>
         <v>0.470588235294118</v>
       </c>
@@ -3967,7 +3974,7 @@
       <c r="B10" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <f aca="false">A10/B10</f>
         <v>0.5</v>
       </c>
@@ -3979,7 +3986,7 @@
       <c r="B11" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <f aca="false">A11/B11</f>
         <v>0.526315789473684</v>
       </c>
@@ -3991,7 +3998,7 @@
       <c r="B12" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <f aca="false">A12/B12</f>
         <v>0.55</v>
       </c>
@@ -4003,7 +4010,7 @@
       <c r="B13" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <f aca="false">A13/B13</f>
         <v>0.571428571428571</v>
       </c>
@@ -4015,7 +4022,7 @@
       <c r="B14" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <f aca="false">A14/B14</f>
         <v>0.590909090909091</v>
       </c>
@@ -4027,7 +4034,7 @@
       <c r="B15" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <f aca="false">A15/B15</f>
         <v>0.608695652173913</v>
       </c>
@@ -4039,7 +4046,7 @@
       <c r="B16" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <f aca="false">A16/B16</f>
         <v>0.625</v>
       </c>
@@ -4051,7 +4058,7 @@
       <c r="B17" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <f aca="false">A17/B17</f>
         <v>0.64</v>
       </c>
@@ -4063,7 +4070,7 @@
       <c r="B18" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <f aca="false">A18/B18</f>
         <v>0.653846153846154</v>
       </c>
@@ -4075,7 +4082,7 @@
       <c r="B19" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <f aca="false">A19/B19</f>
         <v>0.666666666666667</v>
       </c>
@@ -4087,7 +4094,7 @@
       <c r="B20" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <f aca="false">A20/B20</f>
         <v>0.678571428571429</v>
       </c>
@@ -4099,7 +4106,7 @@
       <c r="B21" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <f aca="false">A21/B21</f>
         <v>0.689655172413793</v>
       </c>
@@ -4111,7 +4118,7 @@
       <c r="B22" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <f aca="false">A22/B22</f>
         <v>0.7</v>
       </c>
@@ -4123,7 +4130,7 @@
       <c r="B23" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <f aca="false">A23/B23</f>
         <v>0.709677419354839</v>
       </c>
@@ -4135,7 +4142,7 @@
       <c r="B24" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <f aca="false">A24/B24</f>
         <v>0.71875</v>
       </c>
@@ -4147,7 +4154,7 @@
       <c r="B25" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <f aca="false">A25/B25</f>
         <v>0.727272727272727</v>
       </c>
@@ -4159,7 +4166,7 @@
       <c r="B26" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <f aca="false">A26/B26</f>
         <v>0.735294117647059</v>
       </c>
@@ -4171,7 +4178,7 @@
       <c r="B27" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <f aca="false">A27/B27</f>
         <v>0.742857142857143</v>
       </c>
@@ -4183,7 +4190,7 @@
       <c r="B28" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <f aca="false">A28/B28</f>
         <v>0.75</v>
       </c>
@@ -4195,7 +4202,7 @@
       <c r="B29" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <f aca="false">A29/B29</f>
         <v>0.756756756756757</v>
       </c>
@@ -4207,7 +4214,7 @@
       <c r="B30" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <f aca="false">A30/B30</f>
         <v>0.763157894736842</v>
       </c>
@@ -4219,7 +4226,7 @@
       <c r="B31" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <f aca="false">A31/B31</f>
         <v>0.769230769230769</v>
       </c>
@@ -4231,7 +4238,7 @@
       <c r="B32" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <f aca="false">A32/B32</f>
         <v>0.775</v>
       </c>
@@ -4243,7 +4250,7 @@
       <c r="B33" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <f aca="false">A33/B33</f>
         <v>0.780487804878049</v>
       </c>
@@ -4255,7 +4262,7 @@
       <c r="B34" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <f aca="false">A34/B34</f>
         <v>0.785714285714286</v>
       </c>
@@ -4267,7 +4274,7 @@
       <c r="B35" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <f aca="false">A35/B35</f>
         <v>0.790697674418605</v>
       </c>
@@ -4279,7 +4286,7 @@
       <c r="B36" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <f aca="false">A36/B36</f>
         <v>0.795454545454545</v>
       </c>
@@ -4291,7 +4298,7 @@
       <c r="B37" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <f aca="false">A37/B37</f>
         <v>0.8</v>
       </c>
@@ -4303,7 +4310,7 @@
       <c r="B38" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <f aca="false">A38/B38</f>
         <v>0.804347826086956</v>
       </c>
@@ -4315,7 +4322,7 @@
       <c r="B39" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <f aca="false">A39/B39</f>
         <v>0.808510638297872</v>
       </c>
@@ -4327,7 +4334,7 @@
       <c r="B40" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <f aca="false">A40/B40</f>
         <v>0.8125</v>
       </c>
@@ -4339,7 +4346,7 @@
       <c r="B41" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <f aca="false">A41/B41</f>
         <v>0.816326530612245</v>
       </c>
@@ -4351,7 +4358,7 @@
       <c r="B42" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <f aca="false">A42/B42</f>
         <v>0.82</v>
       </c>
@@ -4363,7 +4370,7 @@
       <c r="B43" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <f aca="false">A43/B43</f>
         <v>0.823529411764706</v>
       </c>
@@ -4375,7 +4382,7 @@
       <c r="B44" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <f aca="false">A44/B44</f>
         <v>0.826923076923077</v>
       </c>
@@ -4387,7 +4394,7 @@
       <c r="B45" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <f aca="false">A45/B45</f>
         <v>0.830188679245283</v>
       </c>
@@ -4399,7 +4406,7 @@
       <c r="B46" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <f aca="false">A46/B46</f>
         <v>0.833333333333333</v>
       </c>
@@ -4411,7 +4418,7 @@
       <c r="B47" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <f aca="false">A47/B47</f>
         <v>0.836363636363636</v>
       </c>
@@ -4423,7 +4430,7 @@
       <c r="B48" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <f aca="false">A48/B48</f>
         <v>0.839285714285714</v>
       </c>
@@ -4435,7 +4442,7 @@
       <c r="B49" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <f aca="false">A49/B49</f>
         <v>0.842105263157895</v>
       </c>
@@ -4447,7 +4454,7 @@
       <c r="B50" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <f aca="false">A50/B50</f>
         <v>0.844827586206896</v>
       </c>
@@ -4459,7 +4466,7 @@
       <c r="B51" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <f aca="false">A51/B51</f>
         <v>0.847457627118644</v>
       </c>
@@ -4471,7 +4478,7 @@
       <c r="B52" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <f aca="false">A52/B52</f>
         <v>0.85</v>
       </c>
@@ -4483,7 +4490,7 @@
       <c r="B53" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <f aca="false">A53/B53</f>
         <v>0.852459016393443</v>
       </c>
@@ -4495,7 +4502,7 @@
       <c r="B54" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <f aca="false">A54/B54</f>
         <v>0.854838709677419</v>
       </c>
@@ -4507,7 +4514,7 @@
       <c r="B55" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <f aca="false">A55/B55</f>
         <v>0.857142857142857</v>
       </c>
@@ -4519,7 +4526,7 @@
       <c r="B56" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <f aca="false">A56/B56</f>
         <v>0.859375</v>
       </c>
@@ -4531,7 +4538,7 @@
       <c r="B57" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <f aca="false">A57/B57</f>
         <v>0.861538461538462</v>
       </c>
@@ -4543,7 +4550,7 @@
       <c r="B58" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <f aca="false">A58/B58</f>
         <v>0.863636363636364</v>
       </c>
@@ -4555,7 +4562,7 @@
       <c r="B59" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <f aca="false">A59/B59</f>
         <v>0.865671641791045</v>
       </c>
@@ -4567,7 +4574,7 @@
       <c r="B60" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <f aca="false">A60/B60</f>
         <v>0.867647058823529</v>
       </c>
@@ -4579,7 +4586,7 @@
       <c r="B61" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <f aca="false">A61/B61</f>
         <v>0.869565217391304</v>
       </c>
@@ -4591,7 +4598,7 @@
       <c r="B62" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <f aca="false">A62/B62</f>
         <v>0.871428571428571</v>
       </c>
@@ -4603,7 +4610,7 @@
       <c r="B63" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <f aca="false">A63/B63</f>
         <v>0.873239436619718</v>
       </c>
@@ -4615,7 +4622,7 @@
       <c r="B64" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <f aca="false">A64/B64</f>
         <v>0.875</v>
       </c>
@@ -4627,7 +4634,7 @@
       <c r="B65" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <f aca="false">A65/B65</f>
         <v>0.876712328767123</v>
       </c>
@@ -4639,7 +4646,7 @@
       <c r="B66" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <f aca="false">A66/B66</f>
         <v>0.878378378378378</v>
       </c>
@@ -4651,7 +4658,7 @@
       <c r="B67" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="1" t="n">
         <f aca="false">A67/B67</f>
         <v>0.88</v>
       </c>
@@ -4663,7 +4670,7 @@
       <c r="B68" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <f aca="false">A68/B68</f>
         <v>0.881578947368421</v>
       </c>
@@ -4675,7 +4682,7 @@
       <c r="B69" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <f aca="false">A69/B69</f>
         <v>0.883116883116883</v>
       </c>
@@ -4687,7 +4694,7 @@
       <c r="B70" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="1" t="n">
         <f aca="false">A70/B70</f>
         <v>0.884615384615385</v>
       </c>
@@ -4699,7 +4706,7 @@
       <c r="B71" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="1" t="n">
         <f aca="false">A71/B71</f>
         <v>0.886075949367089</v>
       </c>
@@ -4711,7 +4718,7 @@
       <c r="B72" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="1" t="n">
         <f aca="false">A72/B72</f>
         <v>0.8875</v>
       </c>
@@ -4723,7 +4730,7 @@
       <c r="B73" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="1" t="n">
         <f aca="false">A73/B73</f>
         <v>0.888888888888889</v>
       </c>
@@ -4735,7 +4742,7 @@
       <c r="B74" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="1" t="n">
         <f aca="false">A74/B74</f>
         <v>0.890243902439024</v>
       </c>
@@ -4747,7 +4754,7 @@
       <c r="B75" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="1" t="n">
         <f aca="false">A75/B75</f>
         <v>0.891566265060241</v>
       </c>
@@ -4759,7 +4766,7 @@
       <c r="B76" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="1" t="n">
         <f aca="false">A76/B76</f>
         <v>0.892857142857143</v>
       </c>
@@ -4771,7 +4778,7 @@
       <c r="B77" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="1" t="n">
         <f aca="false">A77/B77</f>
         <v>0.894117647058824</v>
       </c>
@@ -4783,7 +4790,7 @@
       <c r="B78" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="1" t="n">
         <f aca="false">A78/B78</f>
         <v>0.895348837209302</v>
       </c>
@@ -4795,7 +4802,7 @@
       <c r="B79" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="1" t="n">
         <f aca="false">A79/B79</f>
         <v>0.896551724137931</v>
       </c>
@@ -4807,7 +4814,7 @@
       <c r="B80" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="1" t="n">
         <f aca="false">A80/B80</f>
         <v>0.897727272727273</v>
       </c>
@@ -4819,7 +4826,7 @@
       <c r="B81" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="1" t="n">
         <f aca="false">A81/B81</f>
         <v>0.898876404494382</v>
       </c>
@@ -4831,7 +4838,7 @@
       <c r="B82" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="1" t="n">
         <f aca="false">A82/B82</f>
         <v>0.9</v>
       </c>
@@ -4843,7 +4850,7 @@
       <c r="B83" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="1" t="n">
         <f aca="false">A83/B83</f>
         <v>0.901098901098901</v>
       </c>
@@ -4855,7 +4862,7 @@
       <c r="B84" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="1" t="n">
         <f aca="false">A84/B84</f>
         <v>0.902173913043478</v>
       </c>
@@ -4867,7 +4874,7 @@
       <c r="B85" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="1" t="n">
         <f aca="false">A85/B85</f>
         <v>0.903225806451613</v>
       </c>
@@ -4879,7 +4886,7 @@
       <c r="B86" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="1" t="n">
         <f aca="false">A86/B86</f>
         <v>0.904255319148936</v>
       </c>
@@ -4891,7 +4898,7 @@
       <c r="B87" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="1" t="n">
         <f aca="false">A87/B87</f>
         <v>0.905263157894737</v>
       </c>
@@ -4903,7 +4910,7 @@
       <c r="B88" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" s="1" t="n">
         <f aca="false">A88/B88</f>
         <v>0.90625</v>
       </c>
@@ -4915,7 +4922,7 @@
       <c r="B89" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="1" t="n">
         <f aca="false">A89/B89</f>
         <v>0.907216494845361</v>
       </c>
@@ -4927,7 +4934,7 @@
       <c r="B90" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="1" t="n">
         <f aca="false">A90/B90</f>
         <v>0.908163265306122</v>
       </c>
@@ -4939,7 +4946,7 @@
       <c r="B91" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="1" t="n">
         <f aca="false">A91/B91</f>
         <v>0.909090909090909</v>
       </c>
@@ -4951,7 +4958,7 @@
       <c r="B92" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92" s="1" t="n">
         <f aca="false">A92/B92</f>
         <v>0.91</v>
       </c>
@@ -4963,7 +4970,7 @@
       <c r="B93" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="1" t="n">
         <f aca="false">A93/B93</f>
         <v>0.910891089108911</v>
       </c>
@@ -4975,7 +4982,7 @@
       <c r="B94" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" s="1" t="n">
         <f aca="false">A94/B94</f>
         <v>0.911764705882353</v>
       </c>
@@ -4987,7 +4994,7 @@
       <c r="B95" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" s="1" t="n">
         <f aca="false">A95/B95</f>
         <v>0.912621359223301</v>
       </c>
@@ -4999,7 +5006,7 @@
       <c r="B96" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="1" t="n">
         <f aca="false">A96/B96</f>
         <v>0.913461538461538</v>
       </c>
@@ -5011,7 +5018,7 @@
       <c r="B97" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="1" t="n">
         <f aca="false">A97/B97</f>
         <v>0.914285714285714</v>
       </c>
@@ -5023,7 +5030,7 @@
       <c r="B98" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="1" t="n">
         <f aca="false">A98/B98</f>
         <v>0.915094339622642</v>
       </c>
@@ -5035,7 +5042,7 @@
       <c r="B99" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="1" t="n">
         <f aca="false">A99/B99</f>
         <v>0.91588785046729</v>
       </c>
@@ -5047,7 +5054,7 @@
       <c r="B100" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" s="1" t="n">
         <f aca="false">A100/B100</f>
         <v>0.916666666666667</v>
       </c>
@@ -5059,7 +5066,7 @@
       <c r="B101" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="1" t="n">
         <f aca="false">A101/B101</f>
         <v>0.91743119266055</v>
       </c>
